--- a/_reference_data/nps_park_sites_api.xlsx
+++ b/_reference_data/nps_park_sites_api.xlsx
@@ -493,11 +493,7 @@
           <t>African American Civil War Memorial</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>National Memorial</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>DC</t>
@@ -649,11 +645,7 @@
           <t>Alcatraz Island</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>National Recreation Area</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>CA</t>
@@ -674,12 +666,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aleutian World War II National Historic Area</t>
+          <t>Aleutian Islands World War II National Monument</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>National Historic Area</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1125,11 +1117,7 @@
           <t>Arlington House, The Robert  E. Lee Memorial</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>National Memorial</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>VA</t>
@@ -2429,11 +2417,7 @@
           <t>Capitol Hill Parks</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
           <t>DC</t>
@@ -3261,11 +3245,7 @@
           <t>Civil War Defenses of Washington</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
           <t>DC,MD,VA</t>
@@ -4617,11 +4597,7 @@
           <t>Ford's Theatre</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>National Historic Site</t>
-        </is>
-      </c>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
           <t>DC</t>
@@ -4729,11 +4705,7 @@
           <t>Fort Dupont Park</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
           <t>DC</t>
@@ -5146,12 +5118,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Fort Sumter National Monument</t>
+          <t>Fort Sumter and Fort Moultrie National Historical Park</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5317,11 +5289,7 @@
           <t>Franklin Delano Roosevelt Memorial</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>National Memorial</t>
-        </is>
-      </c>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
           <t>DC</t>
@@ -5958,12 +5926,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Golden Spike National Historic Site</t>
+          <t>Golden Spike National Historical Park</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6157,11 +6125,7 @@
           <t>Great Egg Harbor River</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Scenic &amp; Recreational River</t>
-        </is>
-      </c>
+      <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
           <t>NJ</t>
@@ -6269,11 +6233,7 @@
           <t>Green Springs</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>National Historic Landmark District</t>
-        </is>
-      </c>
+      <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
           <t>VA</t>
@@ -6549,11 +6509,7 @@
           <t>Harmony Hall</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
           <t>MD</t>
@@ -6854,12 +6810,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Honouliuli National Monument</t>
+          <t>Honouliuli National Historic Site</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7081,11 +7037,7 @@
           <t>I&amp;#241;upiat Heritage Center</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Heritage Center</t>
-        </is>
-      </c>
+      <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
           <t>AK</t>
@@ -7713,11 +7665,7 @@
           <t>Kenilworth Park &amp; Aquatic Gardens</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
+      <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr">
         <is>
           <t>DC</t>
@@ -7937,11 +7885,7 @@
           <t>Korean War Veterans Memorial</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>National Memorial</t>
-        </is>
-      </c>
+      <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
           <t>DC</t>
@@ -8133,11 +8077,7 @@
           <t>LBJ Memorial Grove on the Potomac</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>National Memorial</t>
-        </is>
-      </c>
+      <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr">
         <is>
           <t>DC</t>
@@ -8273,11 +8213,7 @@
           <t>Lincoln Memorial</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>National Memorial</t>
-        </is>
-      </c>
+      <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
           <t>DC</t>
@@ -8713,11 +8649,7 @@
           <t>Martin Luther King, Jr. Memorial</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>National Memorial</t>
-        </is>
-      </c>
+      <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
           <t>DC</t>
@@ -9493,11 +9425,7 @@
           <t>National Capital Parks-East</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
           <t>DC</t>
@@ -9521,11 +9449,7 @@
           <t>National Mall and Memorial Parks</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
+      <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
           <t>DC</t>
@@ -9549,11 +9473,7 @@
           <t>National Park of American Samoa</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>National Park</t>
-        </is>
-      </c>
+      <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
           <t>AS</t>
@@ -9577,21 +9497,17 @@
           <t>National Parks of New York Harbor</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
           <t>NY</t>
         </is>
       </c>
       <c r="E332" t="n">
+        <v>40.66319159533879</v>
+      </c>
+      <c r="F332" t="n">
         <v>-74.04510498046879</v>
-      </c>
-      <c r="F332" t="n">
-        <v>40.66319159533879</v>
       </c>
     </row>
     <row r="333">
@@ -10004,7 +9920,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>MI,MN,ND,NY,OH,PA,WI</t>
+          <t>MI,MN,ND,NY,OH,PA,VT,WI</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -10046,12 +9962,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Ocmulgee National Monument</t>
+          <t>Ocmulgee Mounds National Historical Park</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -10293,11 +10209,7 @@
           <t>Oxon Cove  Park &amp; Oxon Hill Farm</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
+      <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
           <t>MD</t>
@@ -10481,264 +10393,260 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>peco</t>
+          <t>valr</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Pecos National Historical Park</t>
+          <t>Pearl Harbor National Memorial</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>National Historical Park</t>
+          <t>National Memorial</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="E365" t="n">
-        <v>35.54192238</v>
+        <v>36.74793528</v>
       </c>
       <c r="F365" t="n">
-        <v>-105.6814684</v>
+        <v>-131.3662323</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>paav</t>
+          <t>peco</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Pennsylvania Avenue</t>
+          <t>Pecos National Historical Park</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.89426856</v>
+        <v>35.54192238</v>
       </c>
       <c r="F366" t="n">
-        <v>-77.02506554</v>
+        <v>-105.6814684</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>pevi</t>
+          <t>paav</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Perry's Victory &amp; International Peace Memorial</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>Memorial</t>
-        </is>
-      </c>
+          <t>Pennsylvania Avenue</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="E367" t="n">
-        <v>41.65449782</v>
+        <v>38.89426856</v>
       </c>
       <c r="F367" t="n">
-        <v>-82.81157940000001</v>
+        <v>-77.02506554</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>pete</t>
+          <t>pevi</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Petersburg National Battlefield</t>
+          <t>Perry's Victory &amp; International Peace Memorial</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>National Battlefield</t>
+          <t>Memorial</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="E368" t="n">
-        <v>37.19109957</v>
+        <v>41.65449782</v>
       </c>
       <c r="F368" t="n">
-        <v>-77.47594865000001</v>
+        <v>-82.81157940000001</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>pefo</t>
+          <t>pete</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Petrified Forest National Park</t>
+          <t>Petersburg National Battlefield</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>National Park</t>
+          <t>National Battlefield</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="E369" t="n">
-        <v>34.98387664</v>
+        <v>37.19109957</v>
       </c>
       <c r="F369" t="n">
-        <v>-109.7877678</v>
+        <v>-77.47594865000001</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>petr</t>
+          <t>pefo</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Petroglyph National Monument</t>
+          <t>Petrified Forest National Park</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Park</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.13915998</v>
+        <v>34.98387664</v>
       </c>
       <c r="F370" t="n">
-        <v>-106.7491456</v>
+        <v>-109.7877678</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>piro</t>
+          <t>petr</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Pictured Rocks National Lakeshore</t>
+          <t>Petroglyph National Monument</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>National Lakeshore</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="E371" t="n">
-        <v>46.56435642</v>
+        <v>35.13915998</v>
       </c>
       <c r="F371" t="n">
-        <v>-86.31628732999999</v>
+        <v>-106.7491456</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>pinn</t>
+          <t>piro</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Pinnacles National Park</t>
+          <t>Pictured Rocks National Lakeshore</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>National Park</t>
+          <t>National Lakeshore</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.49029208</v>
+        <v>46.56435642</v>
       </c>
       <c r="F372" t="n">
-        <v>-121.1813607</v>
+        <v>-86.31628732999999</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>pisp</t>
+          <t>pinn</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Pipe Spring National Monument</t>
+          <t>Pinnacles National Park</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Park</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.86282666</v>
+        <v>36.49029208</v>
       </c>
       <c r="F373" t="n">
-        <v>-112.7398567</v>
+        <v>-121.1813607</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>pipe</t>
+          <t>pisp</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Pipestone National Monument</t>
+          <t>Pipe Spring National Monument</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10748,326 +10656,322 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="E374" t="n">
-        <v>44.01351958</v>
+        <v>36.86282666</v>
       </c>
       <c r="F374" t="n">
-        <v>-96.32475522999999</v>
+        <v>-112.7398567</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>pisc</t>
+          <t>pipe</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Piscataway Park</t>
+          <t>Pipestone National Monument</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.68679958</v>
+        <v>44.01351958</v>
       </c>
       <c r="F375" t="n">
-        <v>-77.06659744</v>
+        <v>-96.32475522999999</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>pore</t>
+          <t>pisc</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Point Reyes National Seashore</t>
+          <t>Piscataway Park</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>National Seashore</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="E376" t="n">
-        <v>38.05511241</v>
+        <v>38.68679958</v>
       </c>
       <c r="F376" t="n">
-        <v>-122.8797804</v>
+        <v>-77.06659744</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>poex</t>
+          <t>pore</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Pony Express National Historic Trail</t>
+          <t>Point Reyes National Seashore</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>National Historic Trail</t>
+          <t>National Seashore</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>CA,CO,KS,MO,NE,NV,UT,WY</t>
-        </is>
-      </c>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>38.05511241</v>
+      </c>
+      <c r="F377" t="n">
+        <v>-122.8797804</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>poch</t>
+          <t>poex</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Port Chicago Naval Magazine National Memorial</t>
+          <t>Pony Express National Historic Trail</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>National Memorial</t>
+          <t>National Historic Trail</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="E378" t="n">
-        <v>38.05685472</v>
-      </c>
-      <c r="F378" t="n">
-        <v>-122.0301603</v>
-      </c>
+          <t>CA,CO,KS,MO,NE,NV,UT,WY</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>pohe</t>
+          <t>poch</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Potomac Heritage National Scenic Trail</t>
+          <t>Port Chicago Naval Magazine National Memorial</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>National Scenic Trail</t>
+          <t>National Memorial</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>DC,MD,PA,VA</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr"/>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>38.05685472</v>
+      </c>
+      <c r="F379" t="n">
+        <v>-122.0301603</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>popo</t>
+          <t>pohe</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Poverty Point National Monument</t>
+          <t>Potomac Heritage National Scenic Trail</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Scenic Trail</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>LA</t>
-        </is>
-      </c>
-      <c r="E380" t="n">
-        <v>32.6424361</v>
-      </c>
-      <c r="F380" t="n">
-        <v>-91.40829834</v>
-      </c>
+          <t>DC,MD,PA,VA</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>wicl</t>
+          <t>popo</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>President William Jefferson Clinton Birthplace Home National Historic Site</t>
+          <t>Poverty Point National Monument</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.66758356</v>
+        <v>32.6424361</v>
       </c>
       <c r="F381" t="n">
-        <v>-93.59641868</v>
+        <v>-91.40829834</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>whho</t>
+          <t>wicl</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>President's Park (White House)</t>
+          <t>President William Jefferson Clinton Birthplace Home National Historic Site</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.89541886</v>
+        <v>33.66758356</v>
       </c>
       <c r="F382" t="n">
-        <v>-77.03654147</v>
+        <v>-93.59641868</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>prsf</t>
+          <t>whho</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Presidio of San Francisco</t>
+          <t>President's Park (White House)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="E383" t="n">
-        <v>37.79718395</v>
+        <v>38.89541886</v>
       </c>
       <c r="F383" t="n">
-        <v>-122.4662415</v>
+        <v>-77.03654147</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>prwi</t>
+          <t>prsf</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Prince William Forest Park</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>Park</t>
-        </is>
-      </c>
+          <t>Presidio of San Francisco</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.58589108</v>
+        <v>37.79718395</v>
       </c>
       <c r="F384" t="n">
-        <v>-77.38910997000001</v>
+        <v>-122.4662415</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>puho</t>
+          <t>prwi</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Pu`uhonua O H&amp;#333;naunau National Historical Park</t>
+          <t>Prince William Forest Park</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>National Historical Park</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.41268627</v>
+        <v>38.58589108</v>
       </c>
       <c r="F385" t="n">
-        <v>-155.9008789</v>
+        <v>-77.38910997000001</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>puhe</t>
+          <t>puho</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Pu`ukohol&amp;#257; Heiau National Historic Site</t>
+          <t>Pu`uhonua O H&amp;#333;naunau National Historical Park</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -11076,49 +10980,49 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20.02772186</v>
+        <v>19.41268627</v>
       </c>
       <c r="F386" t="n">
-        <v>-155.8211629</v>
+        <v>-155.9008789</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>puhe</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Pullman National Monument</t>
+          <t>Pu`ukohol&amp;#257; Heiau National Historic Site</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="E387" t="n">
-        <v>41.69429163</v>
+        <v>20.02772186</v>
       </c>
       <c r="F387" t="n">
-        <v>-87.60873823999999</v>
+        <v>-155.8211629</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>rabr</t>
+          <t>pull</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Rainbow Bridge National Monument</t>
+          <t>Pullman National Monument</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -11128,25 +11032,25 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="E388" t="n">
-        <v>37.07788771</v>
+        <v>41.69429163</v>
       </c>
       <c r="F388" t="n">
-        <v>-110.9655099</v>
+        <v>-87.60873823999999</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>rabr</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Reconstruction Era National Monument</t>
+          <t>Rainbow Bridge National Monument</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -11156,473 +11060,473 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.3868598937988</v>
+        <v>37.07788771</v>
       </c>
       <c r="F389" t="n">
-        <v>-80.65110778808591</v>
+        <v>-110.9655099</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>redw</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Redwood National and State Parks</t>
+          <t>Reconstruction Era National Historical Park</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>National and State Parks</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E390" t="n">
-        <v>41.37237268</v>
+        <v>32.3868598937988</v>
       </c>
       <c r="F390" t="n">
-        <v>-124.0318129</v>
+        <v>-80.65110778808591</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>redw</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Richmond National Battlefield Park</t>
+          <t>Redwood National and State Parks</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>National Battlefield Park</t>
+          <t>National and State Parks</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E391" t="n">
-        <v>37.48774472</v>
+        <v>41.37237268</v>
       </c>
       <c r="F391" t="n">
-        <v>-77.29107784999999</v>
+        <v>-124.0318129</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>rigr</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Rio Grande Wild &amp; Scenic River</t>
+          <t>Richmond National Battlefield Park</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Wild &amp; Scenic River</t>
+          <t>National Battlefield Park</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.52743158</v>
+        <v>37.48774472</v>
       </c>
       <c r="F392" t="n">
-        <v>-102.5979169</v>
+        <v>-77.29107784999999</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>rira</t>
+          <t>rigr</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>River Raisin National Battlefield Park</t>
+          <t>Rio Grande Wild &amp; Scenic River</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>National Battlefield Park</t>
+          <t>Wild &amp; Scenic River</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.91291085</v>
+        <v>29.52743158</v>
       </c>
       <c r="F393" t="n">
-        <v>-83.37620464</v>
+        <v>-102.5979169</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>rist</t>
+          <t>rira</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Rivers Of Steel National Heritage Area</t>
+          <t>River Raisin National Battlefield Park</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>National Heritage Area</t>
+          <t>National Battlefield Park</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.2995758056641</v>
+        <v>41.91291085</v>
       </c>
       <c r="F394" t="n">
-        <v>-79.86196136474609</v>
+        <v>-83.37620464</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>rocr</t>
+          <t>rist</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Rock Creek Park</t>
+          <t>Rivers Of Steel National Heritage Area</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>National Heritage Area</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.95125063</v>
+        <v>40.2995758056641</v>
       </c>
       <c r="F395" t="n">
-        <v>-77.05002838</v>
+        <v>-79.86196136474609</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>romo</t>
+          <t>rocr</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Rocky Mountain National Park</t>
+          <t>Rock Creek Park</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>National Park</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.3556924</v>
+        <v>38.95125063</v>
       </c>
       <c r="F396" t="n">
-        <v>-105.6972879</v>
+        <v>-77.05002838</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>rowi</t>
+          <t>romo</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Roger Williams National Memorial</t>
+          <t>Rocky Mountain National Park</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>National Memorial</t>
+          <t>National Park</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.8298955</v>
+        <v>40.3556924</v>
       </c>
       <c r="F397" t="n">
-        <v>-71.41056665000001</v>
+        <v>-105.6972879</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>roca</t>
+          <t>rowi</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Roosevelt Campobello International Park</t>
+          <t>Roger Williams National Memorial</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>International Park</t>
+          <t>National Memorial</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="E398" t="n">
-        <v>44.87357167</v>
+        <v>41.8298955</v>
       </c>
       <c r="F398" t="n">
-        <v>-66.96209908</v>
+        <v>-71.41056665000001</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>rori</t>
+          <t>roca</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Rosie the Riveter WWII Home Front National Historical Park</t>
+          <t>Roosevelt Campobello International Park</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>National Historical Park</t>
+          <t>International Park</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.90999027</v>
+        <v>44.87357167</v>
       </c>
       <c r="F399" t="n">
-        <v>-122.360156</v>
+        <v>-66.96209908</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ruca</t>
+          <t>rori</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Russell Cave National Monument</t>
+          <t>Rosie the Riveter WWII Home Front National Historical Park</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E400" t="n">
-        <v>34.97402063</v>
+        <v>37.90999027</v>
       </c>
       <c r="F400" t="n">
-        <v>-85.81560313999999</v>
+        <v>-122.360156</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>sahi</t>
+          <t>ruca</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Sagamore Hill National Historic Site</t>
+          <t>Russell Cave National Monument</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="E401" t="n">
-        <v>40.88579128</v>
+        <v>34.97402063</v>
       </c>
       <c r="F401" t="n">
-        <v>-73.49686438000001</v>
+        <v>-85.81560313999999</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>sagu</t>
+          <t>sahi</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Saguaro National Park</t>
+          <t>Sagamore Hill National Historic Site</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>National Park</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.20909636</v>
+        <v>40.88579128</v>
       </c>
       <c r="F402" t="n">
-        <v>-110.7574974</v>
+        <v>-73.49686438000001</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>sacr</t>
+          <t>sagu</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Saint Croix Island International Historic Site</t>
+          <t>Saguaro National Park</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>International Historic Site</t>
+          <t>National Park</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="E403" t="n">
-        <v>45.12858838</v>
+        <v>32.20909636</v>
       </c>
       <c r="F403" t="n">
-        <v>-67.13363651</v>
+        <v>-110.7574974</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>sacn</t>
+          <t>sacr</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Saint Croix National Scenic Riverway</t>
+          <t>Saint Croix Island International Historic Site</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>National Scenic Riverway</t>
+          <t>International Historic Site</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>WI,MN</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="E404" t="n">
-        <v>45.70019235</v>
+        <v>45.12858838</v>
       </c>
       <c r="F404" t="n">
-        <v>-92.36126685000001</v>
+        <v>-67.13363651</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>sapa</t>
+          <t>sacn</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Saint Paul's Church National Historic Site</t>
+          <t>Saint Croix National Scenic Riverway</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Scenic Riverway</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>WI,MN</t>
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.89283511</v>
+        <v>45.70019235</v>
       </c>
       <c r="F405" t="n">
-        <v>-73.82577276000001</v>
+        <v>-92.36126685000001</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>saga</t>
+          <t>sapa</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Saint-Gaudens National Historic Site</t>
+          <t>Saint Paul's Church National Historic Site</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -11632,137 +11536,137 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>NH</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="E406" t="n">
-        <v>43.4997238</v>
+        <v>40.89283511</v>
       </c>
       <c r="F406" t="n">
-        <v>-72.37333968999999</v>
+        <v>-73.82577276000001</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>sama</t>
+          <t>saga</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Salem Maritime National Historic Site</t>
+          <t>Saint-Gaudens National Historical Park</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>NH</t>
         </is>
       </c>
       <c r="E407" t="n">
-        <v>42.52024529</v>
+        <v>43.4997238</v>
       </c>
       <c r="F407" t="n">
-        <v>-70.88640866999999</v>
+        <v>-72.37333968999999</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>sapu</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Salinas Pueblo Missions National Monument</t>
+          <t>Salem Maritime National Historic Site</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="E408" t="n">
-        <v>34.35423203</v>
+        <v>42.52024529</v>
       </c>
       <c r="F408" t="n">
-        <v>-106.2050309</v>
+        <v>-70.88640866999999</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>sari</t>
+          <t>sapu</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Salt River Bay National Historical Park and Ecological Preserve</t>
+          <t>Salinas Pueblo Missions National Monument</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>National Historical Park and Ecological Preserve</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>VI</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="E409" t="n">
-        <v>17.77908602</v>
+        <v>34.35423203</v>
       </c>
       <c r="F409" t="n">
-        <v>-64.75519348</v>
+        <v>-106.2050309</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>saan</t>
+          <t>sari</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>San Antonio Missions National Historical Park</t>
+          <t>Salt River Bay National Historical Park and Ecological Preserve</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>National Historical Park</t>
+          <t>National Historical Park and Ecological Preserve</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>VI</t>
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.31262089</v>
+        <v>17.77908602</v>
       </c>
       <c r="F410" t="n">
-        <v>-98.4289522</v>
+        <v>-64.75519348</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>safr</t>
+          <t>saan</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>San Francisco Maritime National Historical Park</t>
+          <t>San Antonio Missions National Historical Park</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11772,25 +11676,25 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E411" t="n">
-        <v>37.81005871</v>
+        <v>29.31262089</v>
       </c>
       <c r="F411" t="n">
-        <v>-122.4244415</v>
+        <v>-98.4289522</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>sajh</t>
+          <t>safr</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>San Juan Island National Historical Park</t>
+          <t>San Francisco Maritime National Historical Park</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11800,53 +11704,53 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E412" t="n">
-        <v>48.51241933</v>
+        <v>37.81005871</v>
       </c>
       <c r="F412" t="n">
-        <v>-123.0610277</v>
+        <v>-122.4244415</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>saju</t>
+          <t>sajh</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>San Juan National Historic Site</t>
+          <t>San Juan Island National Historical Park</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="E413" t="n">
-        <v>18.46873857</v>
+        <v>48.51241933</v>
       </c>
       <c r="F413" t="n">
-        <v>-66.11848623</v>
+        <v>-123.0610277</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>sand</t>
+          <t>saju</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Sand Creek Massacre National Historic Site</t>
+          <t>San Juan National Historic Site</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11856,274 +11760,274 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="E414" t="n">
-        <v>38.56414189</v>
+        <v>18.46873857</v>
       </c>
       <c r="F414" t="n">
-        <v>-102.5169542</v>
+        <v>-66.11848623</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>safe</t>
+          <t>sand</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Santa Fe National Historic Trail</t>
+          <t>Sand Creek Massacre National Historic Site</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>National Historic Trail</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>CO,KS,MO,NM,OK</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr"/>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>38.56414189</v>
+      </c>
+      <c r="F415" t="n">
+        <v>-102.5169542</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>samo</t>
+          <t>safe</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Santa Monica Mountains National Recreation Area</t>
+          <t>Santa Fe National Historic Trail</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>National Recreation Area</t>
+          <t>National Historic Trail</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="E416" t="n">
-        <v>34.09777606</v>
-      </c>
-      <c r="F416" t="n">
-        <v>-118.7708619</v>
-      </c>
+          <t>CO,KS,MO,NM,OK</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>sara</t>
+          <t>samo</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Saratoga National Historical Park</t>
+          <t>Santa Monica Mountains National Recreation Area</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>National Historical Park</t>
+          <t>National Recreation Area</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.99522612</v>
+        <v>34.09777606</v>
       </c>
       <c r="F417" t="n">
-        <v>-73.63386108</v>
+        <v>-118.7708619</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>sair</t>
+          <t>sara</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Saugus Iron Works National Historic Site</t>
+          <t>Saratoga National Historical Park</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.46830664</v>
+        <v>42.99522612</v>
       </c>
       <c r="F418" t="n">
-        <v>-71.00769529999999</v>
+        <v>-73.63386108</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>scrv</t>
+          <t>sair</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Schuylkill River Valley National Heritage Area</t>
+          <t>Saugus Iron Works National Historic Site</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>National Heritage Area</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr"/>
-      <c r="F419" t="inlineStr"/>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>42.46830664</v>
+      </c>
+      <c r="F419" t="n">
+        <v>-71.00769529999999</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>scbl</t>
+          <t>scrv</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Scotts Bluff National Monument</t>
+          <t>Schuylkill River Valley National Heritage Area</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Heritage Area</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>NE</t>
-        </is>
-      </c>
-      <c r="E420" t="n">
-        <v>41.83464193</v>
-      </c>
-      <c r="F420" t="n">
-        <v>-103.7071351</v>
-      </c>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>semo</t>
+          <t>scbl</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Selma To Montgomery National Historic Trail</t>
+          <t>Scotts Bluff National Monument</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>National Historic Trail</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.27082092</v>
+        <v>41.83464193</v>
       </c>
       <c r="F421" t="n">
-        <v>-86.72823701999999</v>
+        <v>-103.7071351</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>seki</t>
+          <t>semo</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Sequoia &amp; Kings Canyon National Parks</t>
+          <t>Selma To Montgomery National Historic Trail</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>National Park</t>
+          <t>National Historic Trail</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="E422" t="n">
-        <v>36.71277299</v>
+        <v>32.27082092</v>
       </c>
       <c r="F422" t="n">
-        <v>-118.587429</v>
+        <v>-86.72823701999999</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>shen</t>
+          <t>seki</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Shenandoah National Park</t>
+          <t>Sequoia &amp; Kings Canyon National Parks</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>National Park</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E423" t="n">
-        <v>38.49236644</v>
+        <v>36.71277299</v>
       </c>
       <c r="F423" t="n">
-        <v>-78.46907715</v>
+        <v>-118.587429</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>shvb</t>
+          <t>shen</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Shenandoah Valley Battlefields National Historic District</t>
+          <t>Shenandoah National Park</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>National Historic District</t>
+          <t>National Park</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -12132,301 +12036,301 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>38.5846176147461</v>
+        <v>38.49236644</v>
       </c>
       <c r="F424" t="n">
-        <v>-78.7985458374023</v>
+        <v>-78.46907715</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>shil</t>
+          <t>shvb</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Shiloh National Military Park</t>
+          <t>Shenandoah Valley Battlefields National Historic District</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>National Military Park</t>
+          <t>National Historic District</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>TN,MS</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="E425" t="n">
-        <v>35.13850907</v>
+        <v>38.5846176147461</v>
       </c>
       <c r="F425" t="n">
-        <v>-88.3421072</v>
+        <v>-78.7985458374023</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>sitk</t>
+          <t>shil</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Sitka National Historical Park</t>
+          <t>Shiloh National Military Park</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>National Historical Park</t>
+          <t>National Military Park</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>TN,MS</t>
         </is>
       </c>
       <c r="E426" t="n">
-        <v>57.04718173</v>
+        <v>35.13850907</v>
       </c>
       <c r="F426" t="n">
-        <v>-135.3156876</v>
+        <v>-88.3421072</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>slbe</t>
+          <t>sitk</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Sleeping Bear Dunes National Lakeshore</t>
+          <t>Sitka National Historical Park</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>National Lakeshore</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="E427" t="n">
-        <v>44.92844962</v>
+        <v>57.04718173</v>
       </c>
       <c r="F427" t="n">
-        <v>-86.02706591</v>
+        <v>-135.3156876</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>soca</t>
+          <t>slbe</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>South Carolina National Heritage Corridor</t>
+          <t>Sleeping Bear Dunes National Lakeshore</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>National Heritage Corridor</t>
+          <t>National Lakeshore</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.684154510498</v>
+        <v>44.92844962</v>
       </c>
       <c r="F428" t="n">
-        <v>-81.5836944580078</v>
+        <v>-86.02706591</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>spar</t>
+          <t>soca</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Springfield Armory National Historic Site</t>
+          <t>South Carolina National Heritage Corridor</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Heritage Corridor</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E429" t="n">
-        <v>42.1086368</v>
+        <v>33.684154510498</v>
       </c>
       <c r="F429" t="n">
-        <v>-72.57967415</v>
+        <v>-81.5836944580078</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>stsp</t>
+          <t>spar</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Star-Spangled Banner National Historic Trail</t>
+          <t>Springfield Armory National Historic Site</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>National Historic Trail</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>MD,VA,DC</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="E430" t="n">
-        <v>39.2872505188</v>
+        <v>42.1086368</v>
       </c>
       <c r="F430" t="n">
-        <v>-76.6034317017</v>
+        <v>-72.57967415</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>stli</t>
+          <t>stsp</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Statue Of Liberty National Monument</t>
+          <t>Star-Spangled Banner National Historic Trail</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historic Trail</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MD,VA,DC</t>
         </is>
       </c>
       <c r="E431" t="n">
-        <v>40.69572149</v>
+        <v>39.2872505188</v>
       </c>
       <c r="F431" t="n">
-        <v>-74.04232397</v>
+        <v>-76.6034317017</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>stea</t>
+          <t>stli</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Steamtown National Historic Site</t>
+          <t>Statue Of Liberty National Monument</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="E432" t="n">
-        <v>41.40757521</v>
+        <v>40.69572149</v>
       </c>
       <c r="F432" t="n">
-        <v>-75.67037255</v>
+        <v>-74.04232397</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>stri</t>
+          <t>stea</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Stones River National Battlefield</t>
+          <t>Steamtown National Historic Site</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>National Battlefield</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="E433" t="n">
-        <v>35.87608652</v>
+        <v>41.40757521</v>
       </c>
       <c r="F433" t="n">
-        <v>-86.43078398999999</v>
+        <v>-75.67037255</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ston</t>
+          <t>stri</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Stonewall National Monument</t>
+          <t>Stones River National Battlefield</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Battlefield</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="E434" t="n">
-        <v>40.7337799072266</v>
+        <v>35.87608652</v>
       </c>
       <c r="F434" t="n">
-        <v>-74.0006866455078</v>
+        <v>-86.43078398999999</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>sucr</t>
+          <t>ston</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Sunset Crater Volcano National Monument</t>
+          <t>Stonewall National Monument</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -12436,161 +12340,161 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.37114323</v>
+        <v>40.7337799072266</v>
       </c>
       <c r="F435" t="n">
-        <v>-111.510376</v>
+        <v>-74.0006866455078</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>tapr</t>
+          <t>sucr</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tallgrass Prairie National Preserve</t>
+          <t>Sunset Crater Volcano National Monument</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>National Preserve</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="E436" t="n">
-        <v>38.44023613</v>
+        <v>35.37114323</v>
       </c>
       <c r="F436" t="n">
-        <v>-96.5670822</v>
+        <v>-111.510376</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>tecw</t>
+          <t>tapr</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Tennessee Civil War National Heritage Area</t>
+          <t>Tallgrass Prairie National Preserve</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>National Heritage Area</t>
+          <t>National Preserve</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.8429870605469</v>
+        <v>38.44023613</v>
       </c>
       <c r="F437" t="n">
-        <v>-86.3433303833008</v>
+        <v>-96.5670822</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>thko</t>
+          <t>tecw</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Thaddeus Kosciuszko National Memorial</t>
+          <t>Tennessee Civil War National Heritage Area</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>National Memorial</t>
+          <t>National Heritage Area</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="E438" t="n">
-        <v>39.94345312</v>
+        <v>35.8429870605469</v>
       </c>
       <c r="F438" t="n">
-        <v>-75.14732045</v>
+        <v>-86.3433303833008</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>qush</t>
+          <t>thko</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>The Last Green Valley National Heritage Corridor</t>
+          <t>Thaddeus Kosciuszko National Memorial</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>National Heritage Corridor</t>
+          <t>National Memorial</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>CT,MA</t>
-        </is>
-      </c>
-      <c r="E439" t="inlineStr"/>
-      <c r="F439" t="inlineStr"/>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>39.94345312</v>
+      </c>
+      <c r="F439" t="n">
+        <v>-75.14732045</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>thrb</t>
+          <t>qush</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Theodore Roosevelt Birthplace National Historic Site</t>
+          <t>The Last Green Valley National Heritage Corridor</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Heritage Corridor</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="E440" t="n">
-        <v>40.7386469</v>
-      </c>
-      <c r="F440" t="n">
-        <v>-73.98903703000001</v>
-      </c>
+          <t>CT,MA</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>thri</t>
+          <t>thrb</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Theodore Roosevelt Inaugural National Historic Site</t>
+          <t>Theodore Roosevelt Birthplace National Historic Site</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -12604,353 +12508,345 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>42.90146781</v>
+        <v>40.7386469</v>
       </c>
       <c r="F441" t="n">
-        <v>-78.87248411</v>
+        <v>-73.98903703000001</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>thri</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Theodore Roosevelt Island</t>
+          <t>Theodore Roosevelt Inaugural National Historic Site</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>National Memorial</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="E442" t="n">
-        <v>38.89584162</v>
+        <v>42.90146781</v>
       </c>
       <c r="F442" t="n">
-        <v>-77.06241918000001</v>
+        <v>-78.87248411</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>thro</t>
+          <t>this</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Theodore Roosevelt National Park</t>
-        </is>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>National Park</t>
-        </is>
-      </c>
+          <t>Theodore Roosevelt Island</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr">
         <is>
-          <t>ND</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="E443" t="n">
-        <v>47.17777274</v>
+        <v>38.89584162</v>
       </c>
       <c r="F443" t="n">
-        <v>-103.4300083</v>
+        <v>-77.06241918000001</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>thco</t>
+          <t>thro</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Thomas Cole National Historic Site</t>
+          <t>Theodore Roosevelt National Park</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Park</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>ND</t>
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-73.86154864088169</v>
+        <v>47.17777274</v>
       </c>
       <c r="F444" t="n">
-        <v>42.2257060702034</v>
+        <v>-103.4300083</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>edis</t>
+          <t>thco</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Thomas Edison National Historical Park</t>
+          <t>Thomas Cole National Historic Site</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>National Historical Park</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="E445" t="n">
-        <v>40.78549896</v>
+        <v>42.2257060702034</v>
       </c>
       <c r="F445" t="n">
-        <v>-74.23821139</v>
+        <v>-73.86154864088169</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>thje</t>
+          <t>edis</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Thomas Jefferson Memorial</t>
+          <t>Thomas Edison National Historical Park</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>National Memorial</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="E446" t="n">
-        <v>38.88101431</v>
+        <v>40.78549896</v>
       </c>
       <c r="F446" t="n">
-        <v>-77.03632571999999</v>
+        <v>-74.23821139</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>thst</t>
+          <t>thje</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Thomas Stone National Historic Site</t>
-        </is>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>National Historic Site</t>
-        </is>
-      </c>
+          <t>Thomas Jefferson Memorial</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="E447" t="n">
-        <v>38.52934443</v>
+        <v>38.88101431</v>
       </c>
       <c r="F447" t="n">
-        <v>-77.037813</v>
+        <v>-77.03632571999999</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>tica</t>
+          <t>thst</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Timpanogos Cave National Monument</t>
+          <t>Thomas Stone National Historic Site</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="E448" t="n">
-        <v>40.44039719</v>
+        <v>38.52934443</v>
       </c>
       <c r="F448" t="n">
-        <v>-111.7093944</v>
+        <v>-77.037813</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>timu</t>
+          <t>tica</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Timucuan Ecological &amp; Historic Preserve</t>
+          <t>Timpanogos Cave National Monument</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Ecological &amp; Historic Preserve</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="E449" t="n">
-        <v>30.47251894</v>
+        <v>40.44039719</v>
       </c>
       <c r="F449" t="n">
-        <v>-81.49950104</v>
+        <v>-111.7093944</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>tont</t>
+          <t>timu</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tonto National Monument</t>
+          <t>Timucuan Ecological &amp; Historic Preserve</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>Ecological &amp; Historic Preserve</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="E450" t="n">
-        <v>33.64842945</v>
+        <v>30.47251894</v>
       </c>
       <c r="F450" t="n">
-        <v>-111.1135627</v>
+        <v>-81.49950104</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>tosy</t>
+          <t>tont</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Touro Synagogue National Historic Site</t>
+          <t>Tonto National Monument</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="E451" t="n">
-        <v>41.48928393</v>
+        <v>33.64842945</v>
       </c>
       <c r="F451" t="n">
-        <v>-71.31211638000001</v>
+        <v>-111.1135627</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>trte</t>
+          <t>tosy</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Trail Of Tears National Historic Trail</t>
+          <t>Touro Synagogue National Historic Site</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>National Historic Trail</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>AL,AR,GA,IL,KY,MO,NC,OK,TN</t>
-        </is>
-      </c>
-      <c r="E452" t="inlineStr"/>
-      <c r="F452" t="inlineStr"/>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>41.48928393</v>
+      </c>
+      <c r="F452" t="n">
+        <v>-71.31211638000001</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>tule</t>
+          <t>trte</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tule Lake Unit</t>
+          <t>Trail Of Tears National Historic Trail</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historic Trail</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="E453" t="n">
-        <v>41.88727902</v>
-      </c>
-      <c r="F453" t="n">
-        <v>-121.3744818</v>
-      </c>
+          <t>AL,AR,GA,IL,KY,MO,NC,OK,TN</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>tusk</t>
+          <t>tule</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tule Springs Fossil Beds National Monument</t>
+          <t>Tule Lake National Monument</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12960,109 +12856,109 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>NV</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.3893217</v>
+        <v>41.88727902</v>
       </c>
       <c r="F454" t="n">
-        <v>-115.3202223</v>
+        <v>-121.3744818</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>tuma</t>
+          <t>tusk</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tumacácori National Historical Park</t>
+          <t>Tule Springs Fossil Beds National Monument</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>National Historical Park</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="E455" t="n">
-        <v>31.56120725</v>
+        <v>36.3893217</v>
       </c>
       <c r="F455" t="n">
-        <v>-111.0385236</v>
+        <v>-115.3202223</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>tupe</t>
+          <t>tuma</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Tupelo National Battlefield</t>
+          <t>Tumacácori National Historical Park</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>National Battlefield</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.25557705</v>
+        <v>31.56120725</v>
       </c>
       <c r="F456" t="n">
-        <v>-88.73708623</v>
+        <v>-111.0385236</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>tuai</t>
+          <t>tupe</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tuskegee Airmen National Historic Site</t>
+          <t>Tupelo National Battlefield</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Battlefield</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E457" t="n">
-        <v>32.45538671</v>
+        <v>34.25557705</v>
       </c>
       <c r="F457" t="n">
-        <v>-85.67983321</v>
+        <v>-88.73708623</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>tuin</t>
+          <t>tuai</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Tuskegee Institute National Historic Site</t>
+          <t>Tuskegee Airmen National Historic Site</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -13076,278 +12972,278 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>32.42962115</v>
+        <v>32.45538671</v>
       </c>
       <c r="F458" t="n">
-        <v>-85.70488498</v>
+        <v>-85.67983321</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>tuzi</t>
+          <t>tuin</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Tuzigoot National Monument</t>
+          <t>Tuskegee Institute National Historic Site</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.77296377</v>
+        <v>32.42962115</v>
       </c>
       <c r="F459" t="n">
-        <v>-112.0279069</v>
+        <v>-85.70488498</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ulsg</t>
+          <t>tuzi</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Ulysses S Grant National Historic Site</t>
+          <t>Tuzigoot National Monument</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="E460" t="n">
-        <v>38.55182374</v>
+        <v>34.77296377</v>
       </c>
       <c r="F460" t="n">
-        <v>-90.35169255</v>
+        <v>-112.0279069</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>upde</t>
+          <t>ulsg</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Upper Delaware Scenic &amp; Recreational River</t>
+          <t>Ulysses S Grant National Historic Site</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Scenic &amp; Recreational River</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>NY,PA</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="E461" t="n">
-        <v>41.66172578</v>
+        <v>38.55182374</v>
       </c>
       <c r="F461" t="n">
-        <v>-75.03861562</v>
+        <v>-90.35169255</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>vall</t>
+          <t>upde</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Valles Caldera National Preserve</t>
+          <t>Upper Delaware Scenic &amp; Recreational River</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>National Preserve</t>
+          <t>Scenic &amp; Recreational River</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>NY,PA</t>
         </is>
       </c>
       <c r="E462" t="n">
-        <v>35.91682872</v>
+        <v>41.66172578</v>
       </c>
       <c r="F462" t="n">
-        <v>-106.5195724</v>
+        <v>-75.03861562</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>vafo</t>
+          <t>vall</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Valley Forge National Historical Park</t>
+          <t>Valles Caldera National Preserve</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>National Historical Park</t>
+          <t>National Preserve</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="E463" t="n">
-        <v>40.10054985</v>
+        <v>35.91682872</v>
       </c>
       <c r="F463" t="n">
-        <v>-75.44581889</v>
+        <v>-106.5195724</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>vama</t>
+          <t>vafo</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Vanderbilt Mansion National Historic Site</t>
+          <t>Valley Forge National Historical Park</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="E464" t="n">
-        <v>41.79697937</v>
+        <v>40.10054985</v>
       </c>
       <c r="F464" t="n">
-        <v>-73.94205556999999</v>
+        <v>-75.44581889</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>vick</t>
+          <t>vama</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Vicksburg National Military Park</t>
+          <t>Vanderbilt Mansion National Historic Site</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>National Military Park</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>MS,LA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.36212860000001</v>
+        <v>41.79697937</v>
       </c>
       <c r="F465" t="n">
-        <v>-90.85030186</v>
+        <v>-73.94205556999999</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>vive</t>
+          <t>vick</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Vietnam Veterans Memorial</t>
+          <t>Vicksburg National Military Park</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>National Memorial</t>
+          <t>National Military Park</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>MS,LA</t>
         </is>
       </c>
       <c r="E466" t="n">
-        <v>38.89096297</v>
+        <v>32.36212860000001</v>
       </c>
       <c r="F466" t="n">
-        <v>-77.04765734999999</v>
+        <v>-90.85030186</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>vicr</t>
+          <t>vive</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Virgin Islands Coral Reef National Monument</t>
+          <t>Vietnam Veterans Memorial</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>Memorial</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>VI</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="E467" t="n">
-        <v>18.28996918</v>
+        <v>38.89096297</v>
       </c>
       <c r="F467" t="n">
-        <v>-64.70683395</v>
+        <v>-77.04765734999999</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>viis</t>
+          <t>vicr</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Virgin Islands National Park</t>
+          <t>Virgin Islands Coral Reef National Monument</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>National Park</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -13356,21 +13252,21 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>18.34279656</v>
+        <v>18.28996918</v>
       </c>
       <c r="F468" t="n">
-        <v>-64.74194451</v>
+        <v>-64.70683395</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>voya</t>
+          <t>viis</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Voyageurs National Park</t>
+          <t>Virgin Islands National Park</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -13380,53 +13276,53 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>VI</t>
         </is>
       </c>
       <c r="E469" t="n">
-        <v>48.48370609</v>
+        <v>18.34279656</v>
       </c>
       <c r="F469" t="n">
-        <v>-92.83829129999999</v>
+        <v>-64.74194451</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>waco</t>
+          <t>voya</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Waco Mammoth National Monument</t>
+          <t>Voyageurs National Park</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Park</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="E470" t="n">
-        <v>31.60465887</v>
+        <v>48.48370609</v>
       </c>
       <c r="F470" t="n">
-        <v>-97.17606143</v>
+        <v>-92.83829129999999</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>waca</t>
+          <t>waco</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Walnut Canyon National Monument</t>
+          <t>Waco Mammoth National Monument</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -13436,133 +13332,129 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.16822994</v>
+        <v>31.60465887</v>
       </c>
       <c r="F471" t="n">
-        <v>-111.5024239</v>
+        <v>-97.17606143</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>wapa</t>
+          <t>waca</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>War In The Pacific National Historical Park</t>
+          <t>Walnut Canyon National Monument</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>National Historical Park</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="E472" t="n">
-        <v>13.43795691</v>
+        <v>35.16822994</v>
       </c>
       <c r="F472" t="n">
-        <v>144.6922461</v>
+        <v>-111.5024239</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>wamo</t>
+          <t>wapa</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Washington Monument</t>
+          <t>War In The Pacific National Historical Park</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>National Memorial</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="E473" t="n">
-        <v>38.88865182</v>
+        <v>13.43795691</v>
       </c>
       <c r="F473" t="n">
-        <v>-77.03546586</v>
+        <v>144.6922461</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>waro</t>
+          <t>wamo</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Washington-Rochambeau National Historic Trail</t>
-        </is>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>National Historic Trail</t>
-        </is>
-      </c>
+          <t>Washington Monument</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
         <is>
-          <t>MA,RI,CT,NY,NJ,PA,DE,MD,VA,DC</t>
-        </is>
-      </c>
-      <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>38.88865182</v>
+      </c>
+      <c r="F474" t="n">
+        <v>-77.03546586</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>waba</t>
+          <t>waro</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Washita Battlefield National Historic Site</t>
+          <t>Washington-Rochambeau National Historic Trail</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Historic Trail</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="E475" t="n">
-        <v>35.62083963</v>
-      </c>
-      <c r="F475" t="n">
-        <v>-99.70445143000001</v>
-      </c>
+          <t>MA,RI,CT,NY,NJ,PA,DE,MD,VA,DC</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>wefa</t>
+          <t>waba</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Weir Farm National Historic Site</t>
+          <t>Washita Battlefield National Historic Site</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -13572,137 +13464,137 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.25886268</v>
+        <v>35.62083963</v>
       </c>
       <c r="F476" t="n">
-        <v>-73.45452542</v>
+        <v>-99.70445143000001</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>whee</t>
+          <t>wefa</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Wheeling National Heritage Area</t>
+          <t>Weir Farm National Historic Site</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>National Heritage Area</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>WV</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="E477" t="n">
-        <v>40.0387420654297</v>
+        <v>41.25886268</v>
       </c>
       <c r="F477" t="n">
-        <v>-80.6968994140625</v>
+        <v>-73.45452542</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>whis</t>
+          <t>whee</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Whiskeytown National Recreation Area</t>
+          <t>Wheeling National Heritage Area</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>National Recreation Area</t>
+          <t>National Heritage Area</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>WV</t>
         </is>
       </c>
       <c r="E478" t="n">
-        <v>40.61359941</v>
+        <v>40.0387420654297</v>
       </c>
       <c r="F478" t="n">
-        <v>-122.6022657</v>
+        <v>-80.6968994140625</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>whsa</t>
+          <t>whis</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>White Sands National Monument</t>
+          <t>Whiskeytown National Recreation Area</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Recreation Area</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="E479" t="n">
-        <v>32.77907858</v>
+        <v>40.61359941</v>
       </c>
       <c r="F479" t="n">
-        <v>-106.3333461</v>
+        <v>-122.6022657</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>whmi</t>
+          <t>whsa</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Whitman Mission National Historic Site</t>
+          <t>White Sands National Monument</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>National Historic Site</t>
+          <t>National Monument</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.04119286</v>
+        <v>32.77907858</v>
       </c>
       <c r="F480" t="n">
-        <v>-118.4629388</v>
+        <v>-106.3333461</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>wiho</t>
+          <t>whmi</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>William Howard Taft National Historic Site</t>
+          <t>Whitman Mission National Historic Site</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -13712,206 +13604,198 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="E481" t="n">
-        <v>39.11970352</v>
+        <v>46.04119286</v>
       </c>
       <c r="F481" t="n">
-        <v>-84.50758951</v>
+        <v>-118.4629388</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>wicr</t>
+          <t>wiho</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Wilson's Creek National Battlefield</t>
+          <t>William Howard Taft National Historic Site</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>National Battlefield</t>
+          <t>National Historic Site</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.1000127</v>
+        <v>39.11970352</v>
       </c>
       <c r="F482" t="n">
-        <v>-93.40986703999999</v>
+        <v>-84.50758951</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>wica</t>
+          <t>wicr</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Wind Cave National Park</t>
+          <t>Wilson's Creek National Battlefield</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>National Park</t>
+          <t>National Battlefield</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="E483" t="n">
-        <v>43.58012365</v>
+        <v>37.1000127</v>
       </c>
       <c r="F483" t="n">
-        <v>-103.4394709</v>
+        <v>-93.40986703999999</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>wing</t>
+          <t>wica</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Wing Luke Museum Affiliated Area</t>
+          <t>Wind Cave National Park</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Affiliated Area</t>
+          <t>National Park</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>WA</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr"/>
-      <c r="F484" t="inlineStr"/>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>43.58012365</v>
+      </c>
+      <c r="F484" t="n">
+        <v>-103.4394709</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>wotr</t>
+          <t>wing</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Wolf Trap National Park for the Performing Arts</t>
+          <t>Wing Luke Museum Affiliated Area</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>Affiliated Area</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="E485" t="n">
-        <v>38.93854526</v>
-      </c>
-      <c r="F485" t="n">
-        <v>-77.265089</v>
-      </c>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr"/>
+      <c r="F485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>wori</t>
+          <t>wotr</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Women's Rights National Historical Park</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>National Historical Park</t>
-        </is>
-      </c>
+          <t>Wolf Trap National Park for the Performing Arts</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="E486" t="n">
-        <v>42.90817073</v>
+        <v>38.93854526</v>
       </c>
       <c r="F486" t="n">
-        <v>-76.81655558</v>
+        <v>-77.265089</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>wwii</t>
+          <t>wori</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>World War II Memorial</t>
+          <t>Women's Rights National Historical Park</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>National Memorial</t>
+          <t>National Historical Park</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="E487" t="n">
-        <v>38.88923917</v>
+        <v>42.90817073</v>
       </c>
       <c r="F487" t="n">
-        <v>-77.0403759</v>
+        <v>-76.81655558</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>valr</t>
+          <t>wwii</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>World War II Valor in the Pacific National Monument</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>National Monument</t>
-        </is>
-      </c>
+          <t>World War II Memorial</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr">
         <is>
-          <t>HI,AK,CA</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.74793528</v>
+        <v>38.88923917</v>
       </c>
       <c r="F488" t="n">
-        <v>-131.3662323</v>
+        <v>-77.0403759</v>
       </c>
     </row>
     <row r="489">

--- a/_reference_data/nps_park_sites_api.xlsx
+++ b/_reference_data/nps_park_sites_api.xlsx
@@ -666,12 +666,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aleutian Islands World War II National Monument</t>
+          <t>Aleutian Islands World War II National Historic Area</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>National Monument</t>
+          <t>National Historic Area</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>ID,IL,IA,KS,MO,MT,NE,ND,OR,SD,WA</t>
+          <t>IA,ID,IL,IN,KS,KY,MO,MT,NE,ND,OH,OR,PA,SD,WA,WV</t>
         </is>
       </c>
       <c r="E281" t="n">

--- a/_reference_data/nps_park_sites_api.xlsx
+++ b/_reference_data/nps_park_sites_api.xlsx
@@ -8964,10 +8964,10 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>44.87447858</v>
+        <v>44.942487</v>
       </c>
       <c r="F312" t="n">
-        <v>-93.04689808000001</v>
+        <v>-93.09871200000001</v>
       </c>
     </row>
     <row r="313">
@@ -12916,10 +12916,10 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>31.56120725</v>
+        <v>31.567824</v>
       </c>
       <c r="F456" t="n">
-        <v>-111.0385236</v>
+        <v>-111.051223</v>
       </c>
     </row>
     <row r="457">
